--- a/Team-Data/2012-13/3-11-2012-13.xlsx
+++ b/Team-Data/2012-13/3-11-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -753,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
@@ -935,7 +1002,7 @@
         <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -980,7 +1047,7 @@
         <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
         <v>37</v>
       </c>
       <c r="F4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>0.578</v>
+        <v>0.587</v>
       </c>
       <c r="H4" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J4" t="n">
         <v>79.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L4" t="n">
         <v>7.8</v>
@@ -1060,19 +1127,19 @@
         <v>21.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O4" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P4" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R4" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S4" t="n">
         <v>30.3</v>
@@ -1081,16 +1148,16 @@
         <v>42.6</v>
       </c>
       <c r="U4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V4" t="n">
         <v>14.9</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y4" t="n">
         <v>4.7</v>
@@ -1099,16 +1166,16 @@
         <v>18.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
         <v>95</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1123,13 +1190,13 @@
         <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1141,7 +1208,7 @@
         <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>8</v>
@@ -1150,13 +1217,13 @@
         <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS4" t="n">
         <v>19</v>
       </c>
       <c r="AT4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU4" t="n">
         <v>28</v>
@@ -1165,7 +1232,7 @@
         <v>17</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-10.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1356,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>0.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1517,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT6" t="n">
         <v>6</v>
@@ -1544,7 +1611,7 @@
         <v>16</v>
       </c>
       <c r="BB6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-1</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1893,13 +1960,13 @@
         <v>7</v>
       </c>
       <c r="AW8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX8" t="n">
         <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
         <v>24</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.662</v>
+        <v>0.656</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1961,16 +2028,16 @@
         <v>85.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L9" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M9" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N9" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O9" t="n">
         <v>17.8</v>
@@ -1979,7 +2046,7 @@
         <v>25.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R9" t="n">
         <v>13.2</v>
@@ -1991,7 +2058,7 @@
         <v>44.9</v>
       </c>
       <c r="U9" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V9" t="n">
         <v>15.2</v>
@@ -2003,22 +2070,22 @@
         <v>6.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA9" t="n">
         <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>5</v>
@@ -2042,13 +2109,13 @@
         <v>4</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
@@ -2057,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR9" t="n">
         <v>2</v>
@@ -2066,13 +2133,13 @@
         <v>11</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -2122,22 +2189,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" t="n">
-        <v>0.348</v>
+        <v>0.354</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J10" t="n">
         <v>81.3</v>
@@ -2161,61 +2228,61 @@
         <v>23.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="R10" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S10" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T10" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U10" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="W10" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X10" t="n">
         <v>5.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z10" t="n">
         <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
       </c>
       <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
         <v>22</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ10" t="n">
         <v>20</v>
@@ -2236,19 +2303,19 @@
         <v>24</v>
       </c>
       <c r="AP10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>16</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2263,7 +2330,7 @@
         <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
         <v>14</v>
@@ -2272,10 +2339,10 @@
         <v>11</v>
       </c>
       <c r="BB10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="n">
         <v>29</v>
       </c>
       <c r="G11" t="n">
-        <v>0.554</v>
+        <v>0.547</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J11" t="n">
         <v>83.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L11" t="n">
         <v>7.9</v>
@@ -2334,7 +2401,7 @@
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.397</v>
+        <v>0.395</v>
       </c>
       <c r="O11" t="n">
         <v>17.3</v>
@@ -2343,22 +2410,22 @@
         <v>21.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.794</v>
+        <v>0.796</v>
       </c>
       <c r="R11" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S11" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="T11" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V11" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W11" t="n">
         <v>6.8</v>
@@ -2367,22 +2434,22 @@
         <v>4</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z11" t="n">
         <v>21.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.2</v>
+        <v>-0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2391,13 +2458,13 @@
         <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
         <v>8</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>16</v>
@@ -2430,10 +2497,10 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV11" t="n">
         <v>27</v>
@@ -2457,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>12</v>
@@ -2612,7 +2679,7 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2761,7 +2828,7 @@
         <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
         <v>27</v>
@@ -2776,7 +2843,7 @@
         <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
         <v>14</v>
@@ -2809,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3167,10 +3234,10 @@
         <v>26</v>
       </c>
       <c r="AW15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>16</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3362,7 @@
         <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -3340,7 +3407,7 @@
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3580,7 @@
         <v>14</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>28</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3726,7 @@
         <v>25</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>13</v>
@@ -3683,16 +3750,16 @@
         <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>22</v>
@@ -3722,7 +3789,7 @@
         <v>8</v>
       </c>
       <c r="AZ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
@@ -3847,7 +3914,7 @@
         <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3886,7 +3953,7 @@
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU19" t="n">
         <v>19</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>-3.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4041,7 +4108,7 @@
         <v>25</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>17</v>
@@ -4068,7 +4135,7 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU20" t="n">
         <v>22</v>
@@ -4086,7 +4153,7 @@
         <v>24</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -4124,46 +4191,46 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" t="n">
         <v>38</v>
       </c>
       <c r="F21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>0.623</v>
+        <v>0.633</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="J21" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K21" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L21" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="M21" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.367</v>
+        <v>0.37</v>
       </c>
       <c r="O21" t="n">
         <v>16.6</v>
       </c>
       <c r="P21" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="R21" t="n">
         <v>11.2</v>
@@ -4175,13 +4242,13 @@
         <v>41.3</v>
       </c>
       <c r="U21" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V21" t="n">
         <v>12.1</v>
       </c>
       <c r="W21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X21" t="n">
         <v>3.8</v>
@@ -4190,25 +4257,25 @@
         <v>4</v>
       </c>
       <c r="Z21" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="AA21" t="n">
         <v>19.4</v>
       </c>
-      <c r="AA21" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AB21" t="n">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
       </c>
       <c r="AF21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG21" t="n">
         <v>7</v>
@@ -4217,13 +4284,13 @@
         <v>29</v>
       </c>
       <c r="AI21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
         <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4238,16 +4305,16 @@
         <v>18</v>
       </c>
       <c r="AP21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
       </c>
       <c r="AS21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT21" t="n">
         <v>22</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -4306,46 +4373,46 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="n">
         <v>47</v>
       </c>
       <c r="F22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.734</v>
+        <v>0.746</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J22" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.482</v>
+        <v>0.483</v>
       </c>
       <c r="L22" t="n">
         <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N22" t="n">
         <v>0.39</v>
       </c>
       <c r="O22" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="P22" t="n">
         <v>27</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.832</v>
+        <v>0.831</v>
       </c>
       <c r="R22" t="n">
         <v>10.3</v>
@@ -4357,7 +4424,7 @@
         <v>43.1</v>
       </c>
       <c r="U22" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V22" t="n">
         <v>15.5</v>
@@ -4369,22 +4436,22 @@
         <v>7.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z22" t="n">
         <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.5</v>
+        <v>106.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4447,10 +4514,10 @@
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4581,7 +4648,7 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" t="n">
         <v>39</v>
       </c>
       <c r="G24" t="n">
-        <v>0.381</v>
+        <v>0.371</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,40 +4755,40 @@
         <v>37</v>
       </c>
       <c r="J24" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L24" t="n">
         <v>6.2</v>
       </c>
       <c r="M24" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O24" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="P24" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.718</v>
+        <v>0.72</v>
       </c>
       <c r="R24" t="n">
         <v>10.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U24" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="V24" t="n">
         <v>13</v>
@@ -4730,10 +4797,10 @@
         <v>7.3</v>
       </c>
       <c r="X24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z24" t="n">
         <v>18.7</v>
@@ -4742,13 +4809,13 @@
         <v>16.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.40000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4766,10 +4833,10 @@
         <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
@@ -4778,7 +4845,7 @@
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,16 +4857,16 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4814,16 +4881,16 @@
         <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" t="n">
         <v>22</v>
       </c>
       <c r="F25" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" t="n">
-        <v>0.344</v>
+        <v>0.349</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
@@ -4882,7 +4949,7 @@
         <v>17.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.328</v>
+        <v>0.329</v>
       </c>
       <c r="O25" t="n">
         <v>14.7</v>
@@ -4891,7 +4958,7 @@
         <v>19.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
@@ -4906,7 +4973,7 @@
         <v>22.3</v>
       </c>
       <c r="V25" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W25" t="n">
         <v>7.9</v>
@@ -4915,7 +4982,7 @@
         <v>5.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z25" t="n">
         <v>20.7</v>
@@ -4924,31 +4991,31 @@
         <v>18.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
       </c>
       <c r="AF25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
         <v>24</v>
       </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
         <v>21</v>
@@ -4975,7 +5042,7 @@
         <v>13</v>
       </c>
       <c r="AS25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
@@ -4984,10 +5051,10 @@
         <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5160,7 +5227,7 @@
         <v>18</v>
       </c>
       <c r="AT26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
         <v>23</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-6.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG27" t="n">
         <v>26</v>
@@ -5330,7 +5397,7 @@
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" t="n">
         <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.766</v>
+        <v>0.762</v>
       </c>
       <c r="H28" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J28" t="n">
         <v>81.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
@@ -5431,10 +5498,10 @@
         <v>0.382</v>
       </c>
       <c r="O28" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P28" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q28" t="n">
         <v>0.788</v>
@@ -5443,22 +5510,22 @@
         <v>7.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T28" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U28" t="n">
         <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W28" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
         <v>4.5</v>
@@ -5476,7 +5543,7 @@
         <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5530,13 +5597,13 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>5</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5679,7 +5746,7 @@
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
         <v>12</v>
@@ -5700,7 +5767,7 @@
         <v>6</v>
       </c>
       <c r="AR29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="n">
         <v>31</v>
       </c>
       <c r="G30" t="n">
-        <v>0.516</v>
+        <v>0.508</v>
       </c>
       <c r="H30" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I30" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J30" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L30" t="n">
         <v>6</v>
@@ -5798,25 +5865,25 @@
         <v>18.4</v>
       </c>
       <c r="P30" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R30" t="n">
         <v>12.5</v>
       </c>
       <c r="S30" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T30" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U30" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
         <v>8.199999999999999</v>
@@ -5825,31 +5892,31 @@
         <v>6.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF30" t="n">
         <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>8</v>
@@ -5861,13 +5928,13 @@
         <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN30" t="n">
         <v>14</v>
@@ -5885,10 +5952,10 @@
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>11</v>
@@ -5915,7 +5982,7 @@
         <v>13</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6113,7 @@
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-11-2012-13</t>
+          <t>2013-03-11</t>
         </is>
       </c>
     </row>
